--- a/data/income_statement/3digits/total/855_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/855_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>855-Other education</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>855-Other education</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>2428826.65747</v>
@@ -956,37 +862,42 @@
         <v>2693187.94675</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>2885040.76156</v>
+        <v>2885678.05414</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>3369470.49971</v>
+        <v>3371740.79145</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>3889590.20155</v>
+        <v>3894146.56467</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>4350734.08817</v>
+        <v>4372716.636860001</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>4088486.0045</v>
+        <v>4130285.518179999</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>3503615.03267</v>
+        <v>3748993.17967</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>4732143.37088</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>5600615.130109999</v>
+        <v>5633892.708769999</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>6333677.913149999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>6446853.66459</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>5474996.275</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>2293286.95126</v>
@@ -995,115 +906,130 @@
         <v>2573271.52403</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>2753041.37168</v>
+        <v>2753673.86679</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>3199860.99676</v>
+        <v>3202116.60613</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>3677323.0342</v>
+        <v>3681856.57105</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>4100349.67874</v>
+        <v>4121564.07565</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>3892617.71481</v>
+        <v>3932980.51146</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>3280147.64748</v>
+        <v>3510801.23245</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>4455485.18272</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>5243426.939780001</v>
+        <v>5276130.24295</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>5843730.245970001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>5951512.91369</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>5143417.192</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>52484.14645</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>30595.39939000001</v>
+        <v>30595.39939</v>
       </c>
       <c r="E7" s="48" t="n">
         <v>33145.06612</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>57646.51113000001</v>
+        <v>57646.51112999999</v>
       </c>
       <c r="G7" s="48" t="n">
         <v>91727.61284</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>116736.5065</v>
+        <v>116736.71836</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>69316.45727</v>
+        <v>69329.11921999999</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>93920.96264999999</v>
+        <v>95576.95745</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>111105.41354</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>151737.12803</v>
+        <v>151737.12804</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>206235.52156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>207537.03948</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>104674.847</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>83055.55975999999</v>
+        <v>83055.55976</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>89321.02332999998</v>
+        <v>89321.02333</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>98854.32375999998</v>
+        <v>98859.12123</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>111962.99182</v>
+        <v>111977.67419</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>120539.55451</v>
+        <v>120562.38078</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>133647.90293</v>
+        <v>134415.84285</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>126551.83242</v>
+        <v>127975.8875</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>129546.42254</v>
+        <v>142614.98977</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>165552.77462</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>205451.0623</v>
+        <v>206025.33778</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>283712.14562</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>287803.71142</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>226904.236</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>10792.67211</v>
@@ -1121,28 +1047,33 @@
         <v>26922.19295</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>26184.45913</v>
+        <v>26188.39432</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>30697.61299</v>
+        <v>30727.47798</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>28784.43077</v>
+        <v>32048.44153</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>25183.65203</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>29149.53961</v>
+        <v>29158.9158</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>33226.36664</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>33801.19889</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>46455.161</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>6292.298049999999</v>
@@ -1154,34 +1085,39 @@
         <v>6956.68325</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>7321.575069999999</v>
+        <v>7321.57507</v>
       </c>
       <c r="G10" s="48" t="n">
         <v>14956.15153</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>16640.55022</v>
+        <v>16644.48541</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>15139.94584</v>
+        <v>15169.81083</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>21110.82457</v>
+        <v>22795.0075</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>16463.46834</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>21727.83152</v>
+        <v>21737.20771</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>25296.95907</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>25620.53206</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>36055.352</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>4428.22041</v>
@@ -1193,37 +1129,42 @@
         <v>12090.2687</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>9740.814799999998</v>
+        <v>9740.8148</v>
       </c>
       <c r="G11" s="48" t="n">
         <v>11418.11199</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>9237.8644</v>
+        <v>9237.864399999999</v>
       </c>
       <c r="I11" s="48" t="n">
         <v>15114.46937</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>6843.93127</v>
+        <v>8423.759099999999</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>6448.11823</v>
+        <v>6448.118229999999</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>7052.6173</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>7657.06254</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>7908.3218</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>10260.292</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>72.15365</v>
+        <v>72.15365000000001</v>
       </c>
       <c r="D12" s="48" t="n">
         <v>81.43959</v>
@@ -1235,16 +1176,16 @@
         <v>352.48133</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>547.9294299999999</v>
+        <v>547.92943</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>306.0445099999999</v>
+        <v>306.04451</v>
       </c>
       <c r="I12" s="48" t="n">
         <v>443.19778</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>829.6749299999999</v>
+        <v>829.67493</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>2272.06546</v>
@@ -1255,50 +1196,60 @@
       <c r="M12" s="48" t="n">
         <v>272.34503</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>139.517</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>2418033.98536</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>2676131.73967</v>
+        <v>2676131.739670001</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>2865837.2627</v>
+        <v>2866474.555280001</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>3352055.62851</v>
+        <v>3354325.92025</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>3862668.0086</v>
+        <v>3867224.37172</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>4324549.62904</v>
+        <v>4346528.24254</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>4057788.39151</v>
+        <v>4099558.0402</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>3474830.6019</v>
+        <v>3716944.73814</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>4706959.718850001</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>5571465.5905</v>
+        <v>5604733.792969999</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>6300451.54651</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>6413052.4657</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>5428541.114</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>1914432.89715</v>
@@ -1307,37 +1258,42 @@
         <v>2106152.86678</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>2285043.70269</v>
+        <v>2285615.54874</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>2706998.31452</v>
+        <v>2709409.1613</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>3125564.82641</v>
+        <v>3129165.72129</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>3477925.70476</v>
+        <v>3498087.62829</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>3260159.81416</v>
+        <v>3290975.27984</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>2579940.08915</v>
+        <v>2777198.032</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>3513604.83762</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>4277193.21998</v>
+        <v>4302388.60811</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>4920902.26761</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>4999363.752069999</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>3927547.272</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>17852.78365</v>
@@ -1346,37 +1302,42 @@
         <v>36091.85493</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>42036.25349000001</v>
+        <v>42036.25349</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>41757.21404</v>
+        <v>41782.7609</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>43306.07203</v>
+        <v>43307.52851999999</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>46658.23246</v>
+        <v>46800.20317</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>77170.36706</v>
+        <v>77306.44856</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>49167.17329000001</v>
+        <v>49623.91839</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>108943.19595</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>127300.95454</v>
+        <v>127303.97549</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>114998.73244</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>115294.20833</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>126923.308</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>157159.41805</v>
@@ -1388,34 +1349,39 @@
         <v>114021.82458</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>159736.34672</v>
+        <v>159736.42049</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>259684.43736</v>
+        <v>259688.0792</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>297231.7827399999</v>
+        <v>297279.55269</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>289321.24616</v>
+        <v>292905.84373</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>173486.73845</v>
+        <v>186013.32479</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>302027.49191</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>321009.57451</v>
+        <v>330370.32283</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>355417.05065</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>358915.57394</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>377367.396</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>1735845.72449</v>
@@ -1424,37 +1390,42 @@
         <v>1936934.35447</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>2124587.76161</v>
+        <v>2125159.60766</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>2500560.83324</v>
+        <v>2502946.05939</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>2811639.07922</v>
+        <v>2815232.13465</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>3118437.80158</v>
+        <v>3138362.35984</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>2872097.99675</v>
+        <v>2899010.52875</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>2326009.97536</v>
+        <v>2500818.7044</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>3082417.41883</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>3803780.239169999</v>
+        <v>3819474.836120001</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>4418007.512560001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>4492185.341680001</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>3406211.418</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>3574.97096</v>
@@ -1469,31 +1440,36 @@
         <v>4943.92052</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>10935.2378</v>
+        <v>10937.97892</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>15597.88798</v>
+        <v>15645.51259</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>21570.20419</v>
+        <v>21752.4588</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>31276.20205</v>
+        <v>40742.08442</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>20216.73093</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>25102.45176</v>
+        <v>25239.47367</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>32478.97196</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>32968.62812</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>17045.15</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>503601.08821</v>
@@ -1502,76 +1478,86 @@
         <v>569978.87289</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>580793.56001</v>
+        <v>580859.00654</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>645057.3139900001</v>
+        <v>644916.75895</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>737103.18219</v>
+        <v>738058.65043</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>846623.9242799999</v>
+        <v>848440.61425</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>797628.57735</v>
+        <v>808582.7603599998</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>894890.51275</v>
+        <v>939746.70614</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>1193354.88123</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1294272.37052</v>
+        <v>1302345.18486</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1379549.2789</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1413688.71363</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1500993.842</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>550109.4823</v>
+        <v>550109.4822999999</v>
       </c>
       <c r="D20" s="47" t="n">
         <v>591334.8991</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>637467.2783400001</v>
+        <v>637671.00579</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>740035.6185799999</v>
+        <v>740792.61568</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>802394.6184599999</v>
+        <v>803688.48479</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>855603.1028</v>
+        <v>858950.67577</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>886606.3406400001</v>
+        <v>898347.46075</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>867291.52793</v>
+        <v>910565.23314</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>1096169.51876</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1346060.47476</v>
+        <v>1358622.13692</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1553773.08779</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1599456.57395</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1339012.898</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>1086.48925</v>
@@ -1595,7 +1581,7 @@
         <v>3807.38173</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>4420.63724</v>
+        <v>4421.534900000001</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>5102.54734</v>
@@ -1606,50 +1592,60 @@
       <c r="M21" s="48" t="n">
         <v>35373.74604999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>1940.562</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>54208.63741</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>56971.64136000001</v>
+        <v>56971.64136</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>58655.26320999999</v>
+        <v>58655.26321</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>75688.54462</v>
+        <v>75731.34605000001</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>87370.43690999999</v>
+        <v>87385.83698000001</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>89417.09533000001</v>
+        <v>89507.91336000001</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>88177.29874</v>
+        <v>88818.21238999999</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>80135.19869</v>
+        <v>88689.27604</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>93489.87316</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>117894.02665</v>
+        <v>118452.66834</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>134982.33118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>135402.78412</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>112048.446</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>494814.35564</v>
@@ -1658,76 +1654,86 @@
         <v>532084.4383799999</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>576294.9738900001</v>
+        <v>576498.70134</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>662516.42788</v>
+        <v>663230.62355</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>712576.71623</v>
+        <v>713855.18249</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>763854.3231099999</v>
+        <v>767111.0780499999</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>794621.6601699999</v>
+        <v>805721.8666299999</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>782735.692</v>
+        <v>817454.4222</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>997577.09826</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1222736.79755</v>
+        <v>1234739.81802</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1383417.01056</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1428680.04378</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1225023.89</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>-46508.39408999999</v>
+        <v>-46508.39409</v>
       </c>
       <c r="D24" s="47" t="n">
         <v>-21356.02621</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-56673.71833</v>
+        <v>-56811.99925</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-94978.30458999999</v>
+        <v>-95875.85673</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-65291.43627000001</v>
+        <v>-65629.83435999999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-8979.178520000003</v>
+        <v>-10510.06152</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-88977.76329</v>
+        <v>-89764.70039</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>27598.98482</v>
+        <v>29181.47299999999</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>97185.36246999999</v>
+        <v>97185.36247000001</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-51788.10424000001</v>
+        <v>-56276.95206</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-174223.80889</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-185767.86032</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>161980.944</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>39711.90351</v>
@@ -1736,52 +1742,57 @@
         <v>42962.73885</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>77031.21424000002</v>
+        <v>77037.03277999999</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>51597.60509</v>
+        <v>51694.77359</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>71077.37023999999</v>
+        <v>71089.21201999999</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>73047.86273000001</v>
+        <v>73079.55214999999</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>99711.57036</v>
+        <v>100157.96886</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>79702.51583</v>
+        <v>90118.94697</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>124011.07361</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>196382.11121</v>
+        <v>196481.36974</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>158792.5006</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>159789.05247</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>112149.402</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>676.9574500000001</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>706.1720000000001</v>
+        <v>706.172</v>
       </c>
       <c r="E26" s="48" t="n">
         <v>1468.41772</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>1658.36473</v>
+        <v>1719.62126</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>731.2270599999999</v>
+        <v>731.2270600000001</v>
       </c>
       <c r="H26" s="48" t="n">
         <v>2804.2723</v>
@@ -1790,7 +1801,7 @@
         <v>1240.68837</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>4938.89712</v>
+        <v>4938.897120000001</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>4132.00351</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>4475.860090000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>8881.984</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1817,7 +1833,7 @@
         <v>2277.32692</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>401.92417</v>
+        <v>401.9241700000001</v>
       </c>
       <c r="G27" s="48" t="n">
         <v>4218.21706</v>
@@ -1840,17 +1856,22 @@
       <c r="M27" s="48" t="n">
         <v>11831.96612</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>1.232</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>10682.86176</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>9549.634389999999</v>
+        <v>9549.634390000001</v>
       </c>
       <c r="E28" s="48" t="n">
         <v>7640.48259</v>
@@ -1862,28 +1883,33 @@
         <v>10336.13708</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>14147.95855</v>
+        <v>14149.55055</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>17251.78183</v>
+        <v>17506.32291</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>10539.08903</v>
+        <v>12788.83792</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>23252.61653</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>29982.43581</v>
+        <v>30051.435</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>33772.7521</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>33983.95471</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>18874.549</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>567.25753</v>
@@ -1892,7 +1918,7 @@
         <v>467.10799</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>767.2805599999999</v>
+        <v>767.28056</v>
       </c>
       <c r="F29" s="48" t="n">
         <v>409.58378</v>
@@ -1904,10 +1930,10 @@
         <v>552.20376</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>629.1499099999999</v>
+        <v>629.14991</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>1040.08381</v>
+        <v>1040.08731</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>839.54251</v>
@@ -1916,13 +1942,18 @@
         <v>1291.46872</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>25516.60768</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>25516.00743</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>1492.691</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>1279.05166</v>
@@ -1943,10 +1974,10 @@
         <v>2610.78696</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>4485.89821</v>
+        <v>4490.07571</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>342.52944</v>
+        <v>772.0890000000001</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>2433.11155</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>1767.29839</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>599.667</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>788.0040300000001</v>
@@ -1979,13 +2015,13 @@
         <v>346.53396</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>469.44653</v>
+        <v>469.4465300000001</v>
       </c>
       <c r="I31" s="48" t="n">
         <v>2512.93755</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>372.58721</v>
+        <v>395.87631</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>4325.99464</v>
@@ -1994,13 +2030,18 @@
         <v>1019.71262</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>1536.37873</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>1728.03624</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>1306.188</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>6098.774689999999</v>
@@ -2015,31 +2056,36 @@
         <v>4401.0744</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>9490.737830000002</v>
+        <v>9490.73783</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>9709.53824</v>
+        <v>9713.65027</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>25073.30744</v>
+        <v>25079.47436</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>19820.44047</v>
+        <v>23283.86607</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>28509.98534</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>88475.6778</v>
+        <v>88478.48321999999</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>21048.47515</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>21268.17038</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>32695.457</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>34.1587</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>778.87275</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>862.605</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>61.78919</v>
@@ -2099,10 +2150,10 @@
         <v>4.631930000000001</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>327.33128</v>
+        <v>378.39176</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>0</v>
+        <v>0.21522</v>
       </c>
       <c r="K34" s="48" t="n">
         <v>25.27672</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0.44883</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>1.811</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>19523.0485</v>
@@ -2126,37 +2182,42 @@
         <v>24580.18458</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>54752.30806</v>
+        <v>54758.1266</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>32245.55993</v>
+        <v>32281.4719</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>43490.44719</v>
+        <v>43502.28897</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>36967.85191</v>
+        <v>36993.8373</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>41926.3425</v>
+        <v>42056.79502</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>34957.14262</v>
+        <v>39207.33189</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>52488.89412999999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>54538.60262000001</v>
+        <v>54566.05654</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>58063.84076</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>58438.43753</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>47433.218</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>16427.62405</v>
@@ -2168,34 +2229,39 @@
         <v>18194.01741</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>15400.72938</v>
+        <v>15400.72976</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>19970.22325</v>
+        <v>19970.22766</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>19752.1351</v>
+        <v>19759.52383</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>33890.01099</v>
+        <v>33956.07051000001</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>24036.48238</v>
+        <v>27438.73116</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>33353.34976</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>100676.58825</v>
+        <v>100791.42009</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>70661.28408</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>71090.48374000001</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>32995.632</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>1576.76688</v>
@@ -2216,25 +2282,30 @@
         <v>2725.48178</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>3291.17954</v>
+        <v>3298.27249</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>2723.04148</v>
+        <v>2732.81077</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>1665.31501</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>1801.94321</v>
+        <v>1806.28759</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>3410.30191</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>3644.32578</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>1418.413</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>3353.72506</v>
@@ -2258,22 +2329,27 @@
         <v>5765.14635</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>1643.16444</v>
+        <v>2416.4122</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>3715.72184</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>6857.58425</v>
+        <v>6862.234250000001</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>3700.013480000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>3725.55526</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>3059.021</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>77.16038</v>
@@ -2285,7 +2361,7 @@
         <v>134.52968</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>74.33544999999999</v>
+        <v>74.33545000000001</v>
       </c>
       <c r="G39" s="48" t="n">
         <v>39.35392</v>
@@ -2297,7 +2373,7 @@
         <v>15.59286</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>295.13299</v>
+        <v>380.13299</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>81.57686</v>
@@ -2308,35 +2384,40 @@
       <c r="M39" s="48" t="n">
         <v>739.1559299999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>29.857</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>8039.302979999999</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>4717.62372</v>
+        <v>4717.623720000001</v>
       </c>
       <c r="E40" s="48" t="n">
         <v>8399.69378</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>5481.478799999999</v>
+        <v>5481.4788</v>
       </c>
       <c r="G40" s="48" t="n">
         <v>9947.086219999999</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>6354.632320000001</v>
+        <v>6362.01636</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>19794.73015</v>
+        <v>19798.8947</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>14903.84107</v>
+        <v>16755.99138</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>23296.62701</v>
@@ -2345,13 +2426,18 @@
         <v>71016.65056000001</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>43786.69903</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>43876.5526</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>17190.361</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>34.14749</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>941.20102</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>160.639</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>39.96957</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>3306.55169</v>
@@ -2438,76 +2534,86 @@
         <v>3015.05662</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>4363.886109999999</v>
+        <v>4363.88611</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>3738.771000000001</v>
+        <v>3738.77138</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>4622.45758</v>
+        <v>4622.46199</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>4274.041230000001</v>
+        <v>4274.04592</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>4040.00196</v>
+        <v>4094.80398</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>3581.14933</v>
+        <v>4263.23075</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>4594.10904</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>19286.64501</v>
+        <v>19392.48247</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>18083.91271</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>18163.69315</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>11137.341</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>35124.42609</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>32211.79565</v>
+        <v>32211.79565000001</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>36110.94304000001</v>
+        <v>36111.11713000001</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>47707.47987999999</v>
+        <v>47707.66786</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>52260.53858</v>
+        <v>52303.58324</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>59962.20246</v>
+        <v>60206.56048</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>68781.70572</v>
+        <v>69461.01346</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>64230.72833000001</v>
+        <v>80188.03602</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>108966.70547</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>164139.40833</v>
+        <v>164617.03554</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>167458.95369</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>169532.6031</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>139348.191</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>32555.78961</v>
@@ -2516,37 +2622,42 @@
         <v>29561.1949</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>34174.19208</v>
+        <v>34174.36617</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>45839.18998</v>
+        <v>45839.37796</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>48917.00193</v>
+        <v>48960.04659</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>54468.9024</v>
+        <v>54713.26042</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>64760.61552</v>
+        <v>65375.83914</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>56300.57267</v>
+        <v>72182.99696999999</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>98540.01745999999</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>156375.68071</v>
+        <v>156853.30792</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>161459.49377</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>163532.95318</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>130473.866</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>2568.636480000001</v>
@@ -2567,64 +2678,74 @@
         <v>5493.30006</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>4021.0902</v>
+        <v>4085.17432</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>7930.15566</v>
+        <v>8005.03905</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>10426.68801</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>7763.72762</v>
+        <v>7763.727620000001</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>5999.45992</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>5999.64992</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>8874.325000000001</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>-58348.54072</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-29479.24889000001</v>
+        <v>-29479.24889</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-33947.46454</v>
+        <v>-34080.10101000001</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-106488.90876</v>
+        <v>-107289.48076</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-66444.82786</v>
+        <v>-66814.43324</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-15645.65334999999</v>
+        <v>-17396.59368000001</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-91937.90963999998</v>
+        <v>-93023.8155</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>19034.28994</v>
+        <v>11673.65279000001</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>78876.38084999999</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-120221.98961</v>
+        <v>-125204.03795</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-253551.54606</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-266601.89469</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>101786.523</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>20294.70893</v>
@@ -2636,37 +2757,42 @@
         <v>39265.03369</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>41579.42283</v>
+        <v>41580.68928</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>40035.58504</v>
+        <v>40048.62799</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>54387.19662</v>
+        <v>54425.91097</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>67090.46458</v>
+        <v>67303.68618</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>74863.23840999999</v>
+        <v>93228.34131</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>93057.09173</v>
+        <v>93057.09172999999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>98531.65297999998</v>
+        <v>98616.56802000001</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>91662.90024</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>93377.56014</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>97453.83900000001</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>352.25468</v>
+        <v>352.2546800000001</v>
       </c>
       <c r="D49" s="48" t="n">
         <v>268.42815</v>
@@ -2678,7 +2804,7 @@
         <v>688.41662</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>560.08107</v>
+        <v>560.0810700000001</v>
       </c>
       <c r="H49" s="48" t="n">
         <v>1255.69014</v>
@@ -2696,13 +2822,18 @@
         <v>349.2175</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>588.81613</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>609.2202199999999</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>2138.432</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>19942.45425</v>
@@ -2714,34 +2845,39 @@
         <v>38834.3224</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>40891.00621000001</v>
+        <v>40892.27266</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>39475.50397</v>
+        <v>39488.54692</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>53131.50648</v>
+        <v>53170.22083</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>66808.26776</v>
+        <v>67021.48935999999</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>73768.87682999999</v>
+        <v>92133.97973000001</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>92735.86353</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>98182.43547999999</v>
+        <v>98267.35052000001</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>91074.08411</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>92768.33992</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>95315.40700000001</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>27980.84137</v>
@@ -2750,37 +2886,42 @@
         <v>31235.97333</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>195196.89891</v>
+        <v>195196.93887</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>40165.91392</v>
+        <v>40168.34814</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>41312.28476</v>
+        <v>41317.66740000001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>112585.25277</v>
+        <v>112765.28443</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>48646.74988</v>
+        <v>49577.61526</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>114855.82981</v>
+        <v>118736.79219</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>86476.19743</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>158923.11991</v>
+        <v>161179.34091</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>90359.40079</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>91183.27161</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>78785.333</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>1666.52066</v>
@@ -2815,17 +2956,22 @@
       <c r="M52" s="48" t="n">
         <v>1087.06024</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>2799.385</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>3074.82312</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>4102.036929999999</v>
+        <v>4102.03693</v>
       </c>
       <c r="E53" s="48" t="n">
         <v>7524.46391</v>
@@ -2840,10 +2986,10 @@
         <v>5307.15693</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>3194.27958</v>
+        <v>3469.30034</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>2906.27276</v>
+        <v>2938.24644</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>3816.23378</v>
@@ -2852,13 +2998,18 @@
         <v>3629.82148</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>3643.07797</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>3646.65209</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>2693.498</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>23239.49759</v>
@@ -2867,76 +3018,86 @@
         <v>26185.73966</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>184933.90033</v>
+        <v>184933.94029</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>33792.39565000001</v>
+        <v>33794.82986999999</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>36213.5222</v>
+        <v>36218.90484</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>106073.94166</v>
+        <v>106253.97332</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>44783.4938</v>
+        <v>45439.33842</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>111122.28907</v>
+        <v>114971.27777</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>79652.51753999999</v>
+        <v>79652.51754</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>153755.19585</v>
+        <v>156011.41685</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>85629.26258</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>86449.55928</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>73292.45</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-66034.67316000001</v>
+        <v>-66034.67315999999</v>
       </c>
       <c r="D55" s="47" t="n">
         <v>-35656.63173</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-189879.32976</v>
+        <v>-190012.00619</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-105075.39985</v>
+        <v>-105877.13962</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-67721.52757999999</v>
+        <v>-68083.47265000001</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-73843.7095</v>
+        <v>-75735.96713999999</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-73494.19494</v>
+        <v>-75297.74458</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-20958.30146</v>
+        <v>-13834.79809</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>85457.27515</v>
+        <v>85457.27514999999</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-180613.45654</v>
+        <v>-187766.81084</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-252248.04661</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-264407.60616</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>120455.029</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>20153.5333</v>
@@ -2954,64 +3115,72 @@
         <v>28613.77255</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>36865.4247</v>
+        <v>36879.72546</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>32000.94361</v>
+        <v>32094.35163</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>30676.17154</v>
+        <v>32153.38053</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>41089.09662</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>53328.26959</v>
+        <v>53616.11509000001</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>56317.00814</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>55402.14419</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>56189.512</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-86188.20645999999</v>
+        <v>-86188.20646</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-58517.41810999999</v>
+        <v>-58517.41811</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-216605.13822</v>
+        <v>-216737.81465</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-129714.81375</v>
+        <v>-130516.55352</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-96335.30012999999</v>
+        <v>-96697.2452</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-110709.1342</v>
+        <v>-112615.6926</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-105495.13855</v>
+        <v>-107392.09621</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-51634.47300000001</v>
+        <v>-45988.17862</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>44368.17852999999</v>
+        <v>44368.17853</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-233941.72613</v>
+        <v>-241382.92593</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-308565.05475</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-319809.75035</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>64265.517</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>6329</v>
@@ -3038,34 +3210,37 @@
         <v>6536</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>6635</v>
+        <v>6639</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>6801</v>
+        <v>6813</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>6356</v>
+        <v>6374</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>6465</v>
+        <v>6496</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>6182</v>
+        <v>6253</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>5611</v>
+        <v>5773</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>6088</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>6283</v>
+        <v>6495</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>6562</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>6943</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>7265</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>